--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,6 +483,23 @@
   </si>
   <si>
     <t>Name of the Q-station traveler was transferred to</t>
+  </si>
+  <si>
+    <t>Composition.extension:flight-detail</t>
+  </si>
+  <si>
+    <t>flight-detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/flight-details}
+</t>
+  </si>
+  <si>
+    <t>Flight Details</t>
+  </si>
+  <si>
+    <t>Flight Details provides details about a single flight that the ill traveler was a passenger on. 
+It does not cover each leg of an itinerary. Each leg requires a flightDetail</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -1828,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3173,11 +3190,13 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3190,26 +3209,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3257,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3266,7 +3281,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -3275,7 +3290,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3289,44 +3304,46 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3374,42 +3391,42 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3417,7 +3434,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3426,26 +3443,24 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3454,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>75</v>
@@ -3469,13 +3484,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3493,10 +3508,10 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>88</v>
@@ -3508,27 +3523,27 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3545,25 +3560,25 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3573,7 +3588,7 @@
         <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>75</v>
@@ -3588,13 +3603,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3612,7 +3627,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>88</v>
@@ -3627,27 +3642,27 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3655,10 +3670,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3670,19 +3685,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3692,7 +3707,7 @@
         <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>75</v>
@@ -3707,13 +3722,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3731,13 +3746,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -3746,27 +3761,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3774,10 +3789,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3789,19 +3804,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3826,13 +3841,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3850,13 +3865,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3865,27 +3880,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3893,10 +3908,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3908,17 +3923,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3967,7 +3984,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3982,27 +3999,27 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4010,10 +4027,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4025,19 +4042,17 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4086,10 +4101,10 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -4101,27 +4116,27 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4132,7 +4147,7 @@
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4144,17 +4159,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -4191,23 +4208,25 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -4216,37 +4235,35 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -4261,17 +4278,17 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4308,19 +4325,17 @@
         <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4335,30 +4350,30 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>75</v>
@@ -4380,17 +4395,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4439,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4454,30 +4469,30 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>75</v>
@@ -4499,17 +4514,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4558,7 +4573,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
@@ -4573,38 +4588,40 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4616,18 +4633,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4636,7 +4653,7 @@
         <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>75</v>
@@ -4675,13 +4692,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -4690,27 +4707,27 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4718,10 +4735,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4733,16 +4750,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4753,7 +4770,7 @@
         <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>75</v>
@@ -4768,13 +4785,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4792,10 +4809,10 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4810,13 +4827,13 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>75</v>
@@ -4824,10 +4841,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4847,23 +4864,21 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4887,13 +4902,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4911,13 +4926,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -4929,13 +4944,13 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>75</v>
@@ -4943,10 +4958,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4957,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4969,16 +4984,20 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -5026,31 +5045,31 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>75</v>
@@ -5058,21 +5077,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5084,17 +5103,15 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5143,25 +5160,25 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5175,14 +5192,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5195,10 +5212,10 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>133</v>
@@ -5210,11 +5227,9 @@
         <v>293</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5280,7 +5295,7 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5301,36 +5316,38 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5355,52 +5372,52 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>75</v>
@@ -5411,10 +5428,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5422,7 +5439,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5437,17 +5454,17 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5472,13 +5489,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5496,10 +5513,10 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5514,10 +5531,10 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5528,10 +5545,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5554,17 +5571,17 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5613,7 +5630,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5631,24 +5648,24 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>316</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5668,22 +5685,20 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5732,7 +5747,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5750,24 +5765,24 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5787,21 +5802,23 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5849,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
@@ -5867,13 +5884,13 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>75</v>
@@ -5881,10 +5898,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5907,15 +5924,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5964,31 +5983,31 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>75</v>
@@ -5996,21 +6015,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -6022,17 +6041,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -6081,25 +6098,25 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6113,14 +6130,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6133,10 +6150,10 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>133</v>
@@ -6148,11 +6165,9 @@
         <v>293</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -6218,7 +6233,7 @@
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6232,44 +6247,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -6293,13 +6310,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -6317,31 +6334,31 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>75</v>
@@ -6349,10 +6366,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6375,15 +6392,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6408,13 +6427,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -6432,7 +6451,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6450,13 +6469,13 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6464,10 +6483,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6475,7 +6494,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6487,23 +6506,19 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6551,13 +6566,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -6569,13 +6584,13 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -6583,10 +6598,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6606,19 +6621,23 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6666,31 +6685,31 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -6698,21 +6717,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6724,17 +6743,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6783,25 +6800,25 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6815,14 +6832,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6835,10 +6852,10 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>133</v>
@@ -6850,11 +6867,9 @@
         <v>293</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6920,7 +6935,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6934,14 +6949,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6954,24 +6969,26 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6995,13 +7012,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -7019,7 +7036,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7031,19 +7048,19 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>75</v>
@@ -7051,10 +7068,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7065,7 +7082,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7077,15 +7094,17 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -7110,13 +7129,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7134,13 +7153,13 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
@@ -7152,10 +7171,10 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>374</v>
@@ -7180,7 +7199,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -7192,13 +7211,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7255,7 +7274,7 @@
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -7267,13 +7286,13 @@
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>378</v>
+        <v>239</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>75</v>
@@ -7281,10 +7300,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7295,7 +7314,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7304,16 +7323,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7352,17 +7371,19 @@
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7374,7 +7395,7 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7383,7 +7404,7 @@
         <v>383</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>183</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7394,10 +7415,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7420,13 +7441,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7465,40 +7486,38 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7509,21 +7528,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7535,17 +7554,15 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7594,25 +7611,25 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7626,14 +7643,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7646,10 +7663,10 @@
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>133</v>
@@ -7661,11 +7678,9 @@
         <v>293</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7731,7 +7746,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7745,45 +7760,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>159</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7832,28 +7847,28 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7864,14 +7879,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7890,7 +7905,7 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>395</v>
@@ -7927,13 +7942,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7951,7 +7966,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7969,10 +7984,10 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7983,10 +7998,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7997,7 +8012,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -8009,17 +8024,19 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8044,13 +8061,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -8068,13 +8085,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -8086,24 +8103,24 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8114,7 +8131,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -8126,18 +8143,18 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8185,13 +8202,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -8203,16 +8220,16 @@
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8243,7 +8260,7 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>410</v>
@@ -8311,7 +8328,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8320,10 +8337,10 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8334,10 +8351,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8360,20 +8377,18 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -8397,13 +8412,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8421,7 +8436,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8430,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8439,24 +8454,24 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8479,19 +8494,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8516,13 +8531,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8540,7 +8555,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8558,24 +8573,24 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8586,7 +8601,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8598,18 +8613,20 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8633,13 +8650,13 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>434</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8657,16 +8674,16 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8675,10 +8692,10 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>437</v>
+        <v>183</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8689,10 +8706,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8703,7 +8720,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -8715,20 +8732,18 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8752,13 +8767,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8776,16 +8791,16 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8794,10 +8809,10 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8808,10 +8823,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8822,7 +8837,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8834,18 +8849,20 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8869,13 +8886,13 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8893,16 +8910,16 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8911,10 +8928,10 @@
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -8928,11 +8945,9 @@
         <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8941,7 +8956,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8953,15 +8968,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -9010,7 +9027,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9019,19 +9036,19 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -9042,12 +9059,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9068,13 +9087,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9125,28 +9144,28 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9157,21 +9176,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9183,17 +9202,15 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -9242,25 +9259,25 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9274,14 +9291,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9294,10 +9311,10 @@
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>133</v>
@@ -9309,11 +9326,9 @@
         <v>293</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
       </c>
@@ -9379,7 +9394,7 @@
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9393,45 +9408,45 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>392</v>
+        <v>159</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9441,7 +9456,7 @@
         <v>75</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>457</v>
+        <v>75</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>75</v>
@@ -9480,28 +9495,28 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>75</v>
@@ -9512,14 +9527,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9538,7 +9553,7 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>395</v>
@@ -9560,7 +9575,7 @@
         <v>75</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>75</v>
@@ -9575,13 +9590,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -9599,7 +9614,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9617,10 +9632,10 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>75</v>
@@ -9631,10 +9646,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9645,7 +9660,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -9657,17 +9672,19 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -9692,13 +9709,13 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -9716,13 +9733,13 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
@@ -9734,24 +9751,24 @@
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9762,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9774,18 +9791,18 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>75</v>
       </c>
@@ -9833,13 +9850,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -9851,21 +9868,21 @@
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>409</v>
@@ -9891,7 +9908,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>410</v>
@@ -9959,7 +9976,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -9968,10 +9985,10 @@
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>75</v>
@@ -9982,10 +9999,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10008,20 +10025,18 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
@@ -10045,13 +10060,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -10069,7 +10084,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10078,7 +10093,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10087,24 +10102,24 @@
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10127,19 +10142,19 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10164,13 +10179,13 @@
         <v>75</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>75</v>
@@ -10188,7 +10203,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10206,24 +10221,24 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10234,7 +10249,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -10246,18 +10261,20 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -10281,13 +10298,13 @@
         <v>75</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>75</v>
+        <v>434</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
@@ -10305,16 +10322,16 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
@@ -10323,10 +10340,10 @@
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>437</v>
+        <v>183</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>75</v>
@@ -10337,10 +10354,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10351,7 +10368,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -10363,20 +10380,18 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10400,13 +10415,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10424,16 +10439,16 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10442,10 +10457,10 @@
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10456,10 +10471,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10470,7 +10485,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -10482,18 +10497,20 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10517,13 +10534,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10541,16 +10558,16 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10559,10 +10576,10 @@
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10573,14 +10590,12 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>75</v>
       </c>
@@ -10589,7 +10604,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -10601,15 +10616,17 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10658,7 +10675,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10667,19 +10684,19 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10690,12 +10707,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10716,13 +10735,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10773,28 +10792,28 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10805,21 +10824,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -10831,17 +10850,15 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10890,25 +10907,25 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>75</v>
@@ -10922,14 +10939,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10942,10 +10959,10 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>133</v>
@@ -10957,11 +10974,9 @@
         <v>293</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
       </c>
@@ -11027,7 +11042,7 @@
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>75</v>
@@ -11041,45 +11056,45 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>392</v>
+        <v>159</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
@@ -11089,7 +11104,7 @@
         <v>75</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>474</v>
+        <v>75</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>75</v>
@@ -11128,28 +11143,28 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>75</v>
@@ -11160,14 +11175,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11186,7 +11201,7 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>395</v>
@@ -11208,7 +11223,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -11223,13 +11238,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -11247,7 +11262,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11265,10 +11280,10 @@
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>75</v>
@@ -11279,10 +11294,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11293,7 +11308,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -11305,17 +11320,19 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -11340,13 +11357,13 @@
         <v>75</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -11364,13 +11381,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -11382,24 +11399,24 @@
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11410,7 +11427,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
@@ -11422,18 +11439,18 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -11481,13 +11498,13 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
@@ -11499,21 +11516,21 @@
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>409</v>
@@ -11539,7 +11556,7 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>410</v>
@@ -11607,7 +11624,7 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11616,10 +11633,10 @@
         <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>75</v>
@@ -11630,10 +11647,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11656,20 +11673,18 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
       </c>
@@ -11693,13 +11708,13 @@
         <v>75</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>75</v>
@@ -11717,7 +11732,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11726,7 +11741,7 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>100</v>
@@ -11735,24 +11750,24 @@
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11775,19 +11790,19 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -11812,13 +11827,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11836,7 +11851,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11854,24 +11869,24 @@
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11882,7 +11897,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11894,18 +11909,20 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>482</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -11929,13 +11946,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>75</v>
+        <v>434</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11953,16 +11970,16 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>100</v>
@@ -11971,10 +11988,10 @@
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>437</v>
+        <v>183</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>75</v>
@@ -11985,10 +12002,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11999,7 +12016,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -12011,20 +12028,18 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>182</v>
+        <v>487</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -12048,13 +12063,13 @@
         <v>75</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>75</v>
@@ -12072,16 +12087,16 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>100</v>
@@ -12090,10 +12105,10 @@
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>75</v>
@@ -12104,10 +12119,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12118,7 +12133,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -12130,18 +12145,20 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>75</v>
       </c>
@@ -12165,13 +12182,13 @@
         <v>75</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>75</v>
@@ -12189,16 +12206,16 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
@@ -12207,20 +12224,137 @@
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO88" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO88">
+  <autoFilter ref="A1:AO89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12230,7 +12364,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,10 +452,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Composition.extension:qstation-transfer-date</t>
-  </si>
-  <si>
-    <t>qstation-transfer-date</t>
+    <t>Composition.extension:station-transfer-date</t>
+  </si>
+  <si>
+    <t>station-transfer-date</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/transfer-date}
@@ -465,24 +465,27 @@
     <t>Date transferred to Q-Station</t>
   </si>
   <si>
-    <t>The date that an ill traveler was transferred to Quartintine Station</t>
+    <t>The date that an ill traveler was transferred to Port Health Station</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Composition.extension:qstation-name</t>
-  </si>
-  <si>
-    <t>qstation-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/qstation-name}
+    <t>Composition.extension:port-health-station</t>
+  </si>
+  <si>
+    <t>port-health-station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/port-health-station}
 </t>
   </si>
   <si>
-    <t>Name of the Q-station traveler was transferred to</t>
+    <t>Name of Q-Station</t>
+  </si>
+  <si>
+    <t>Name of the Port Health Station the traveler was transferred to</t>
   </si>
   <si>
     <t>Composition.extension:flight-detail</t>
@@ -1856,7 +1859,7 @@
   <cols>
     <col min="1" max="1" width="52.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1864,7 +1867,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3101,10 +3104,10 @@
         <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3187,13 +3190,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
@@ -3215,13 +3218,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3304,14 +3307,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3333,16 +3336,16 @@
         <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3391,7 +3394,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3423,10 +3426,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3449,16 +3452,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3508,7 +3511,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3523,27 +3526,27 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3569,16 +3572,16 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3588,7 +3591,7 @@
         <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>75</v>
@@ -3603,13 +3606,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3627,7 +3630,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>88</v>
@@ -3642,27 +3645,27 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3685,19 +3688,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3707,7 +3710,7 @@
         <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>75</v>
@@ -3725,10 +3728,10 @@
         <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3746,7 +3749,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3761,27 +3764,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3804,19 +3807,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3841,13 +3844,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3865,7 +3868,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3880,27 +3883,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3923,19 +3926,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3984,7 +3987,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4002,24 +4005,24 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4042,17 +4045,17 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4101,7 +4104,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4116,27 +4119,27 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4159,19 +4162,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -4220,7 +4223,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>88</v>
@@ -4235,27 +4238,27 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4278,17 +4281,17 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4325,7 +4328,7 @@
         <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4335,7 +4338,7 @@
         <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4350,30 +4353,30 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>75</v>
@@ -4395,17 +4398,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4454,7 +4457,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4469,30 +4472,30 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>75</v>
@@ -4514,17 +4517,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4573,7 +4576,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
@@ -4588,30 +4591,30 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
@@ -4633,17 +4636,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4692,7 +4695,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4707,27 +4710,27 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4750,16 +4753,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4770,7 +4773,7 @@
         <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>75</v>
@@ -4809,7 +4812,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4827,13 +4830,13 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>75</v>
@@ -4841,10 +4844,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4870,13 +4873,13 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4902,13 +4905,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4926,7 +4929,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4944,13 +4947,13 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>75</v>
@@ -4958,10 +4961,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4984,19 +4987,19 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -5045,7 +5048,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5063,13 +5066,13 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>75</v>
@@ -5077,10 +5080,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5103,13 +5106,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5160,7 +5163,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5181,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5192,14 +5195,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5221,13 +5224,13 @@
         <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5277,7 +5280,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5295,7 +5298,7 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5309,14 +5312,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5338,16 +5341,16 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5396,7 +5399,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5428,10 +5431,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5457,14 +5460,14 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5489,13 +5492,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5513,7 +5516,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5531,10 +5534,10 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5545,10 +5548,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5571,17 +5574,17 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5630,7 +5633,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5648,10 +5651,10 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5662,10 +5665,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5688,17 +5691,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5747,7 +5750,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5765,24 +5768,24 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5805,19 +5808,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5866,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5884,13 +5887,13 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>75</v>
@@ -5898,10 +5901,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5924,16 +5927,16 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5983,7 +5986,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6001,13 +6004,13 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>75</v>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6041,13 +6044,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6098,7 +6101,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6116,7 +6119,7 @@
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6130,14 +6133,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6159,13 +6162,13 @@
         <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6215,7 +6218,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6233,7 +6236,7 @@
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6247,14 +6250,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6276,16 +6279,16 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6334,7 +6337,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6366,10 +6369,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6395,13 +6398,13 @@
         <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6427,13 +6430,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -6451,7 +6454,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6469,13 +6472,13 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6483,10 +6486,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6509,13 +6512,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6566,7 +6569,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6584,13 +6587,13 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -6598,10 +6601,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6624,19 +6627,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6685,7 +6688,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6703,13 +6706,13 @@
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -6717,10 +6720,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6743,13 +6746,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6800,7 +6803,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6818,7 +6821,7 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6832,14 +6835,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6861,13 +6864,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6917,7 +6920,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6935,7 +6938,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6949,14 +6952,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6978,16 +6981,16 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -7036,7 +7039,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7068,10 +7071,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7094,16 +7097,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7129,13 +7132,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7153,7 +7156,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7171,13 +7174,13 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>75</v>
@@ -7185,10 +7188,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7211,13 +7214,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7268,7 +7271,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7286,13 +7289,13 @@
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>75</v>
@@ -7300,10 +7303,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7326,13 +7329,13 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7383,7 +7386,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7401,10 +7404,10 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7415,10 +7418,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7441,13 +7444,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7486,7 +7489,7 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
@@ -7496,7 +7499,7 @@
         <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7508,16 +7511,16 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7528,10 +7531,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7554,13 +7557,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7611,7 +7614,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7629,7 +7632,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7643,14 +7646,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7672,13 +7675,13 @@
         <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7728,7 +7731,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7746,7 +7749,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7760,14 +7763,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7789,16 +7792,16 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7847,7 +7850,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7879,14 +7882,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7905,19 +7908,19 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7966,7 +7969,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7984,10 +7987,10 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7998,10 +8001,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8024,19 +8027,19 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8061,13 +8064,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -8085,7 +8088,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8103,10 +8106,10 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8117,10 +8120,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8143,17 +8146,17 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -8202,7 +8205,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8220,24 +8223,24 @@
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8260,16 +8263,16 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8319,7 +8322,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8340,7 +8343,7 @@
         <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8351,10 +8354,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8380,13 +8383,13 @@
         <v>118</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8436,7 +8439,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8445,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8454,10 +8457,10 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8468,10 +8471,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8497,16 +8500,16 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8531,13 +8534,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8555,7 +8558,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8573,24 +8576,24 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8613,19 +8616,19 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -8653,10 +8656,10 @@
         <v>112</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8674,7 +8677,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8692,10 +8695,10 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8706,10 +8709,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8732,16 +8735,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8791,7 +8794,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8800,7 +8803,7 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8809,10 +8812,10 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8823,10 +8826,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8849,19 +8852,19 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8889,10 +8892,10 @@
         <v>112</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8910,7 +8913,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8919,7 +8922,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8928,10 +8931,10 @@
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -8942,10 +8945,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8971,13 +8974,13 @@
         <v>78</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9027,7 +9030,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9036,7 +9039,7 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9045,10 +9048,10 @@
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -9059,13 +9062,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>75</v>
@@ -9087,13 +9090,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9144,7 +9147,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9156,16 +9159,16 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9176,10 +9179,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9202,13 +9205,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9259,7 +9262,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9277,7 +9280,7 @@
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9291,14 +9294,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9320,13 +9323,13 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9376,7 +9379,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9394,7 +9397,7 @@
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9408,14 +9411,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9437,16 +9440,16 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9495,7 +9498,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9527,14 +9530,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9553,19 +9556,19 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9575,7 +9578,7 @@
         <v>75</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>75</v>
@@ -9614,7 +9617,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9632,10 +9635,10 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>75</v>
@@ -9646,10 +9649,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9672,19 +9675,19 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -9709,13 +9712,13 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -9733,7 +9736,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9751,10 +9754,10 @@
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>75</v>
@@ -9765,10 +9768,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9791,17 +9794,17 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -9850,7 +9853,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9868,24 +9871,24 @@
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9908,16 +9911,16 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9967,7 +9970,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9988,7 +9991,7 @@
         <v>75</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>75</v>
@@ -9999,10 +10002,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10028,13 +10031,13 @@
         <v>118</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10084,7 +10087,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10093,7 +10096,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10102,10 +10105,10 @@
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -10116,10 +10119,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10145,16 +10148,16 @@
         <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10179,13 +10182,13 @@
         <v>75</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>75</v>
@@ -10203,7 +10206,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10221,24 +10224,24 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10261,19 +10264,19 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -10301,10 +10304,10 @@
         <v>112</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
@@ -10322,7 +10325,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10340,10 +10343,10 @@
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>75</v>
@@ -10354,10 +10357,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10380,16 +10383,16 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10439,7 +10442,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10448,7 +10451,7 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10457,10 +10460,10 @@
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10471,10 +10474,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10497,19 +10500,19 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10537,10 +10540,10 @@
         <v>112</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10558,7 +10561,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10567,7 +10570,7 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10576,10 +10579,10 @@
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10590,10 +10593,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10619,13 +10622,13 @@
         <v>78</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10675,7 +10678,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10684,7 +10687,7 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
@@ -10693,10 +10696,10 @@
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10707,13 +10710,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>75</v>
@@ -10735,13 +10738,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10792,7 +10795,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10804,16 +10807,16 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10824,10 +10827,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10850,13 +10853,13 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10907,7 +10910,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10925,7 +10928,7 @@
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>75</v>
@@ -10939,14 +10942,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10968,13 +10971,13 @@
         <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11024,7 +11027,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11042,7 +11045,7 @@
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>75</v>
@@ -11056,14 +11059,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11085,16 +11088,16 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
@@ -11143,7 +11146,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11175,14 +11178,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11201,19 +11204,19 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -11223,7 +11226,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -11262,7 +11265,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11280,10 +11283,10 @@
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>75</v>
@@ -11294,10 +11297,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11320,19 +11323,19 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -11357,13 +11360,13 @@
         <v>75</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -11381,7 +11384,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11399,10 +11402,10 @@
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>75</v>
@@ -11413,10 +11416,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11439,17 +11442,17 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
@@ -11498,7 +11501,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11516,24 +11519,24 @@
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11556,16 +11559,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11615,7 +11618,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11636,7 +11639,7 @@
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>75</v>
@@ -11647,10 +11650,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11676,13 +11679,13 @@
         <v>118</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11732,7 +11735,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11741,7 +11744,7 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>100</v>
@@ -11750,10 +11753,10 @@
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>75</v>
@@ -11764,10 +11767,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11793,16 +11796,16 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -11827,13 +11830,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11851,7 +11854,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11869,24 +11872,24 @@
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11909,19 +11912,19 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>75</v>
@@ -11949,10 +11952,10 @@
         <v>112</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11970,7 +11973,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -11988,10 +11991,10 @@
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>75</v>
@@ -12002,10 +12005,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12028,16 +12031,16 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12087,7 +12090,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12096,7 +12099,7 @@
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>100</v>
@@ -12105,10 +12108,10 @@
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>75</v>
@@ -12119,10 +12122,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12145,19 +12148,19 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
@@ -12185,10 +12188,10 @@
         <v>112</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>75</v>
@@ -12206,7 +12209,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12215,7 +12218,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
@@ -12224,10 +12227,10 @@
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>75</v>
@@ -12238,10 +12241,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12267,13 +12270,13 @@
         <v>78</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12323,7 +12326,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12332,7 +12335,7 @@
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>100</v>
@@ -12341,10 +12344,10 @@
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
